--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1460.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1460.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.38218140462116</v>
+        <v>1.144488096237183</v>
       </c>
       <c r="B1">
-        <v>1.614239568708752</v>
+        <v>2.522819042205811</v>
       </c>
       <c r="C1">
-        <v>2.073816271317029</v>
+        <v>4.051132678985596</v>
       </c>
       <c r="D1">
-        <v>3.517126482152545</v>
+        <v>3.545252084732056</v>
       </c>
       <c r="E1">
-        <v>0.7786889555679148</v>
+        <v>1.225531101226807</v>
       </c>
     </row>
   </sheetData>
